--- a/5.26晚起 数据压缩/城市数据.xlsx
+++ b/5.26晚起 数据压缩/城市数据.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924CBA28-CFBB-4F82-8A91-809526205D81}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DF5181-B73F-4B8A-89DE-D51369F19814}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>地级市</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,53 +147,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需要线路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>总需求（Gb/s）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用各级线路所需光纤数及相对光纤成本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1级线路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2级线路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3级线路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光纤数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相对成本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1级</t>
-  </si>
-  <si>
-    <t>1级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>清远韶关</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,6 +168,18 @@
   </si>
   <si>
     <t>惠州汕尾揭阳潮州汕头梅州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东部地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归分析需要得到的全省需求应该超过117.37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最好也不要太大</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -302,7 +271,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -320,12 +289,34 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -612,7 +603,7 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -630,72 +621,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="7"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -727,31 +708,20 @@
         <v>100</v>
       </c>
       <c r="I3" s="1">
-        <f>0.058356310288995*H3</f>
-        <v>5.8356310288994999</v>
+        <f>0.118917453556208*H3</f>
+        <v>11.891745355620801</v>
       </c>
       <c r="J3" s="1">
         <f>ROUND(I3*10,0)*100</f>
-        <v>5800</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>39</v>
-      </c>
+        <v>11900</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -779,42 +749,24 @@
         <v>87.401035935696839</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" ref="H4:H24" si="3">C4*0.0725+E4*0.2276+G4*0.6999</f>
+        <f t="shared" ref="H4:H23" si="3">C4*0.0725+E4*0.2276+G4*0.6999</f>
         <v>92.216819969766689</v>
       </c>
-      <c r="I4" s="5">
-        <f t="shared" ref="I4:I24" si="4">0.058356310288995*H4</f>
-        <v>5.3814333600200959</v>
+      <c r="I4" s="6">
+        <f t="shared" ref="I4:I25" si="4">0.118917453556208*H4</f>
+        <v>10.966189405855925</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" ref="J4:J24" si="5">ROUND(I4*10,0)*100</f>
-        <v>5400</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M4" s="1">
-        <f>L4</f>
-        <v>-1</v>
-      </c>
-      <c r="N4" s="2">
-        <v>-1</v>
-      </c>
-      <c r="O4">
-        <f>N4</f>
-        <v>-1</v>
-      </c>
-      <c r="P4" s="2">
-        <f t="shared" ref="P4:P24" si="6">ROUNDUP(J4/800,0)</f>
-        <v>7</v>
-      </c>
-      <c r="Q4">
-        <f>P4*1.5</f>
-        <v>10.5</v>
-      </c>
+        <f t="shared" ref="J4:J23" si="5">ROUND(I4*10,0)*100</f>
+        <v>11000</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="13"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -845,40 +797,21 @@
         <f t="shared" si="3"/>
         <v>68.786839234791643</v>
       </c>
-      <c r="I5" s="5">
-        <f t="shared" si="4"/>
-        <v>4.0141461341847169</v>
+      <c r="I5" s="6">
+        <f t="shared" si="4"/>
+        <v>8.1799557599816808</v>
       </c>
       <c r="J5" s="3">
         <f t="shared" si="5"/>
-        <v>4000</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M5" s="1">
-        <f t="shared" ref="M5:M24" si="7">L5</f>
-        <v>-1</v>
-      </c>
-      <c r="N5" s="3">
-        <f t="shared" ref="N5:N24" si="8">ROUNDUP(J5/600,0)</f>
-        <v>7</v>
-      </c>
-      <c r="O5">
-        <f>N5*1.25</f>
-        <v>8.75</v>
-      </c>
-      <c r="P5" s="3">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" ref="Q5:Q24" si="9">P5*1.5</f>
-        <v>7.5</v>
-      </c>
+        <v>8200</v>
+      </c>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="13"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
@@ -909,40 +842,21 @@
         <f t="shared" si="3"/>
         <v>65.682316068812455</v>
       </c>
-      <c r="I6" s="5">
-        <f t="shared" si="4"/>
-        <v>3.832977617011462</v>
+      <c r="I6" s="6">
+        <f t="shared" si="4"/>
+        <v>7.81077377057718</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" si="5"/>
-        <v>3800</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M6" s="1">
-        <f t="shared" si="7"/>
-        <v>-1</v>
-      </c>
-      <c r="N6" s="3">
-        <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="O6">
-        <f t="shared" ref="O6:O24" si="10">N6*1.25</f>
-        <v>8.75</v>
-      </c>
-      <c r="P6" s="3">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="9"/>
-        <v>7.5</v>
-      </c>
+        <v>7800</v>
+      </c>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="13"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -973,40 +887,21 @@
         <f t="shared" si="3"/>
         <v>52.240346227915524</v>
       </c>
-      <c r="I7" s="5">
-        <f t="shared" si="4"/>
-        <v>3.048553854080768</v>
+      <c r="I7" s="6">
+        <f t="shared" si="4"/>
+        <v>6.2122889463183704</v>
       </c>
       <c r="J7" s="4">
         <f t="shared" si="5"/>
-        <v>3000</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="4">
-        <v>-1</v>
-      </c>
-      <c r="M7" s="4">
-        <f t="shared" si="7"/>
-        <v>-1</v>
-      </c>
-      <c r="N7" s="4">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="O7" s="8">
-        <f t="shared" si="10"/>
-        <v>6.25</v>
-      </c>
-      <c r="P7" s="4">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="Q7" s="8">
-        <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
+        <v>6200</v>
+      </c>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -1037,40 +932,21 @@
         <f t="shared" si="3"/>
         <v>47.805602194782743</v>
       </c>
-      <c r="I8" s="5">
-        <f t="shared" si="4"/>
-        <v>2.7897585552310025</v>
+      <c r="I8" s="6">
+        <f t="shared" si="4"/>
+        <v>5.6849204787246324</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="5"/>
-        <v>2800</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="4">
-        <v>-1</v>
-      </c>
-      <c r="M8" s="4">
-        <f t="shared" si="7"/>
-        <v>-1</v>
-      </c>
-      <c r="N8" s="4">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="O8" s="8">
-        <f t="shared" si="10"/>
-        <v>6.25</v>
-      </c>
-      <c r="P8" s="4">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="Q8" s="8">
-        <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
+        <v>5700</v>
+      </c>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="16"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -1101,40 +977,21 @@
         <f t="shared" si="3"/>
         <v>45.636319308923063</v>
       </c>
-      <c r="I9" s="5">
-        <f t="shared" si="4"/>
-        <v>2.6631672100391683</v>
+      <c r="I9" s="6">
+        <f t="shared" si="4"/>
+        <v>5.4269548818951368</v>
       </c>
       <c r="J9" s="4">
         <f t="shared" si="5"/>
-        <v>2700</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="4">
-        <v>-1</v>
-      </c>
-      <c r="M9" s="4">
-        <f t="shared" si="7"/>
-        <v>-1</v>
-      </c>
-      <c r="N9" s="4">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="O9" s="8">
-        <f t="shared" si="10"/>
-        <v>6.25</v>
-      </c>
-      <c r="P9" s="4">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="Q9" s="8">
-        <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
+        <v>5400</v>
+      </c>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="16"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -1165,41 +1022,21 @@
         <f t="shared" si="3"/>
         <v>46.031210790112418</v>
       </c>
-      <c r="I10" s="5">
-        <f t="shared" si="4"/>
-        <v>2.6862116198459352</v>
+      <c r="I10" s="6">
+        <f t="shared" si="4"/>
+        <v>5.4739143712692142</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="5"/>
-        <v>2700</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" s="4">
-        <f>ROUNDUP(J10/400,0)</f>
-        <v>7</v>
-      </c>
-      <c r="M10" s="1">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="N10" s="4">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="10"/>
-        <v>6.25</v>
-      </c>
-      <c r="P10" s="4">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
+        <v>5500</v>
+      </c>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="13"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -1230,41 +1067,21 @@
         <f t="shared" si="3"/>
         <v>46.82328631420917</v>
       </c>
-      <c r="I11" s="5">
-        <f t="shared" si="4"/>
-        <v>2.7324342249024434</v>
+      <c r="I11" s="6">
+        <f t="shared" si="4"/>
+        <v>5.568105975618999</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="5"/>
-        <v>2700</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" s="4">
-        <f t="shared" ref="L11:L24" si="11">ROUNDUP(J11/400,0)</f>
-        <v>7</v>
-      </c>
-      <c r="M11" s="1">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="N11" s="4">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="10"/>
-        <v>6.25</v>
-      </c>
-      <c r="P11" s="4">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
+        <v>5600</v>
+      </c>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="13"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
@@ -1295,41 +1112,21 @@
         <f t="shared" si="3"/>
         <v>43.231645448603892</v>
       </c>
-      <c r="I12" s="5">
-        <f t="shared" si="4"/>
-        <v>2.5228393161025475</v>
+      <c r="I12" s="6">
+        <f t="shared" si="4"/>
+        <v>5.1409971897928042</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" si="5"/>
-        <v>2500</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L12" s="4">
-        <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="M12" s="1">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="N12" s="4">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="10"/>
-        <v>6.25</v>
-      </c>
-      <c r="P12" s="4">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
+        <v>5100</v>
+      </c>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="13"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
@@ -1360,41 +1157,21 @@
         <f t="shared" si="3"/>
         <v>37.946183093929747</v>
       </c>
-      <c r="I13" s="5">
-        <f t="shared" si="4"/>
-        <v>2.2143992349123809</v>
+      <c r="I13" s="6">
+        <f t="shared" si="4"/>
+        <v>4.5124634657077562</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="5"/>
-        <v>2200</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13" s="4">
-        <f t="shared" si="11"/>
-        <v>6</v>
-      </c>
-      <c r="M13" s="1">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="N13" s="4">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="P13" s="4">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="9"/>
-        <v>4.5</v>
-      </c>
+        <v>4500</v>
+      </c>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="13"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
@@ -1425,41 +1202,21 @@
         <f t="shared" si="3"/>
         <v>39.04715123937666</v>
       </c>
-      <c r="I14" s="5">
-        <f t="shared" si="4"/>
-        <v>2.2786476736263803</v>
+      <c r="I14" s="6">
+        <f t="shared" si="4"/>
+        <v>4.6433877940108035</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" si="5"/>
-        <v>2300</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L14" s="4">
-        <f t="shared" si="11"/>
-        <v>6</v>
-      </c>
-      <c r="M14" s="1">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="N14" s="4">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="P14" s="4">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="9"/>
-        <v>4.5</v>
-      </c>
+        <v>4600</v>
+      </c>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="13"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
@@ -1490,41 +1247,21 @@
         <f t="shared" si="3"/>
         <v>36.12921292693435</v>
       </c>
-      <c r="I15" s="5">
-        <f t="shared" si="4"/>
-        <v>2.1083675600613505</v>
+      <c r="I15" s="6">
+        <f t="shared" si="4"/>
+        <v>4.2963940002610652</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="5"/>
-        <v>2100</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L15" s="4">
-        <f t="shared" si="11"/>
-        <v>6</v>
-      </c>
-      <c r="M15" s="1">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="N15" s="4">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="P15" s="4">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="9"/>
-        <v>4.5</v>
-      </c>
+        <v>4300</v>
+      </c>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="13"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
@@ -1555,41 +1292,21 @@
         <f t="shared" si="3"/>
         <v>43.533563710807151</v>
       </c>
-      <c r="I16" s="5">
-        <f t="shared" si="4"/>
-        <v>2.5404581518935947</v>
+      <c r="I16" s="6">
+        <f t="shared" si="4"/>
+        <v>5.1769005407161313</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="5"/>
-        <v>2500</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L16" s="4">
-        <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="M16" s="1">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="N16" s="4">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="10"/>
-        <v>6.25</v>
-      </c>
-      <c r="P16" s="4">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
+        <v>5200</v>
+      </c>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="13"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
@@ -1620,41 +1337,21 @@
         <f t="shared" si="3"/>
         <v>31.208337792696994</v>
       </c>
-      <c r="I17" s="5">
-        <f t="shared" si="4"/>
-        <v>1.8212034438343951</v>
+      <c r="I17" s="6">
+        <f t="shared" si="4"/>
+        <v>3.7112160600294959</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="5"/>
-        <v>1800</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L17" s="4">
-        <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="M17" s="1">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="N17" s="4">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="10"/>
-        <v>3.75</v>
-      </c>
-      <c r="P17" s="4">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="9"/>
-        <v>4.5</v>
-      </c>
+        <v>3700</v>
+      </c>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="13"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
@@ -1685,41 +1382,21 @@
         <f t="shared" si="3"/>
         <v>32.727321111476925</v>
       </c>
-      <c r="I18" s="5">
-        <f t="shared" si="4"/>
-        <v>1.9098457057089242</v>
+      <c r="I18" s="6">
+        <f t="shared" si="4"/>
+        <v>3.891849688293163</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="5"/>
-        <v>1900</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L18" s="4">
-        <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="M18" s="1">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="N18" s="4">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="P18" s="4">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="9"/>
-        <v>4.5</v>
-      </c>
+        <v>3900</v>
+      </c>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="13"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
@@ -1750,41 +1427,21 @@
         <f t="shared" si="3"/>
         <v>31.894634506714262</v>
       </c>
-      <c r="I19" s="5">
-        <f t="shared" si="4"/>
-        <v>1.8612531878279046</v>
+      <c r="I19" s="6">
+        <f t="shared" si="4"/>
+        <v>3.7928287176444222</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="5"/>
-        <v>1900</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L19" s="4">
-        <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="M19" s="1">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="N19" s="4">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="P19" s="4">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="9"/>
-        <v>4.5</v>
-      </c>
+        <v>3800</v>
+      </c>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="13"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
@@ -1815,41 +1472,21 @@
         <f t="shared" si="3"/>
         <v>29.554253162457762</v>
       </c>
-      <c r="I20" s="5">
-        <f t="shared" si="4"/>
-        <v>1.7246771679078969</v>
+      <c r="I20" s="6">
+        <f t="shared" si="4"/>
+        <v>3.5145165278349846</v>
       </c>
       <c r="J20" s="4">
         <f t="shared" si="5"/>
-        <v>1700</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L20" s="4">
-        <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="M20" s="1">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="N20" s="4">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="10"/>
-        <v>3.75</v>
-      </c>
-      <c r="P20" s="4">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="9"/>
-        <v>4.5</v>
-      </c>
+        <v>3500</v>
+      </c>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="13"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
@@ -1880,41 +1517,21 @@
         <f t="shared" si="3"/>
         <v>30.746121803296134</v>
       </c>
-      <c r="I21" s="5">
-        <f t="shared" si="4"/>
-        <v>1.7942302241363839</v>
+      <c r="I21" s="6">
+        <f t="shared" si="4"/>
+        <v>3.6562505115769821</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" si="5"/>
-        <v>1800</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L21" s="4">
-        <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="M21" s="1">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="N21" s="4">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="10"/>
-        <v>3.75</v>
-      </c>
-      <c r="P21" s="4">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="9"/>
-        <v>4.5</v>
-      </c>
+        <v>3700</v>
+      </c>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="13"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
@@ -1945,41 +1562,21 @@
         <f t="shared" si="3"/>
         <v>28.557922296296379</v>
       </c>
-      <c r="I22" s="5">
-        <f t="shared" si="4"/>
-        <v>1.6665349747316802</v>
+      <c r="I22" s="6">
+        <f t="shared" si="4"/>
+        <v>3.3960353983316218</v>
       </c>
       <c r="J22" s="4">
         <f t="shared" si="5"/>
-        <v>1700</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L22" s="4">
-        <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="M22" s="1">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="N22" s="4">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="10"/>
-        <v>3.75</v>
-      </c>
-      <c r="P22" s="4">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="9"/>
-        <v>4.5</v>
-      </c>
+        <v>3400</v>
+      </c>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="13"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
@@ -2010,41 +1607,21 @@
         <f t="shared" si="3"/>
         <v>37.240698465669112</v>
       </c>
-      <c r="I23" s="5">
-        <f t="shared" si="4"/>
-        <v>2.1732297550414867</v>
+      <c r="I23" s="6">
+        <f t="shared" si="4"/>
+        <v>4.4285690301919534</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="5"/>
-        <v>2200</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L23" s="4">
-        <f t="shared" si="11"/>
-        <v>6</v>
-      </c>
-      <c r="M23" s="1">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="N23" s="4">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="P23" s="4">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="9"/>
-        <v>4.5</v>
-      </c>
+        <v>4400</v>
+      </c>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="13"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C24" s="4"/>
@@ -2054,101 +1631,115 @@
         <f>SUM(H3:H23)</f>
         <v>987.03978566757303</v>
       </c>
-      <c r="I24" s="5">
-        <f>SUM(I3:I23)</f>
-        <v>57.60000000000003</v>
+      <c r="I24" s="6">
+        <f t="shared" si="4"/>
+        <v>117.37625787025311</v>
       </c>
       <c r="J24" s="1">
         <f>SUM(J3:J23)</f>
-        <v>57500</v>
-      </c>
-      <c r="L24" s="1">
-        <f t="shared" si="11"/>
-        <v>144</v>
-      </c>
-      <c r="M24" s="1">
-        <f t="shared" si="7"/>
-        <v>144</v>
-      </c>
-      <c r="N24" s="1">
-        <f t="shared" si="8"/>
-        <v>96</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="10"/>
-        <v>120</v>
-      </c>
-      <c r="P24" s="4">
-        <f t="shared" si="6"/>
-        <v>72</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="9"/>
-        <v>108</v>
-      </c>
+        <v>117400</v>
+      </c>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="13"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="A25" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="G25" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="H25">
-        <f>SUM(H4,H9,H10,H11,H13,H17,H19,H20)</f>
-        <v>361.31104493881008</v>
-      </c>
-      <c r="I25" s="5">
-        <f>0.058356310288995*H25</f>
-        <v>21.08477944929022</v>
+        <f>SUM(H9,H10,H11,H13,H17,H19,H20)</f>
+        <v>269.09422496904341</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" si="4"/>
+        <v>32.000000000000007</v>
       </c>
       <c r="J25" s="4">
         <f>ROUND(I25*10,0)*100</f>
-        <v>21100</v>
-      </c>
-      <c r="P25" s="4"/>
+        <v>32000</v>
+      </c>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="13"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C27">
         <f>0.058356310288995*H25</f>
-        <v>21.08477944929022</v>
-      </c>
+        <v>15.703346089270124</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B28">
         <f>SUM(H15,H18)</f>
         <v>68.856534038411269</v>
       </c>
       <c r="C28">
-        <f t="shared" ref="C28:C29" si="12">0.058356310288995*B28</f>
+        <f t="shared" ref="C28:C29" si="6">0.058356310288995*B28</f>
         <v>4.0182132657702745</v>
       </c>
+      <c r="G28" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B29">
         <f>SUM(H14,H22)</f>
         <v>67.605073535673043</v>
       </c>
       <c r="C29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>3.9451826483580605</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="18">
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="G1:G2"/>
@@ -2157,14 +1748,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:Q1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
